--- a/data/TestConfiguration.xlsx
+++ b/data/TestConfiguration.xlsx
@@ -884,7 +884,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,7 +951,7 @@
         <v>64</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
